--- a/reviews.xlsx
+++ b/reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Review Text</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Genre</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Critic Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Publication</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Review Text</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Review Date</t>
         </is>
       </c>
     </row>
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>There are thrillers, and then there are thrillers. Gripping every second and couching its pages of exposition in the smartest way possible, Inception is original filmmaking at its finest.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Akhil Arora</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>AkhilArora.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>There are thrillers, and then there are thrillers. Gripping every second and couching its pages of exposition in the smartest way possible, Inception is original filmmaking at its finest.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Oct 17, 2023</t>
         </is>
       </c>
     </row>
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>"Inception" delivers twists that fit the evolving context of the story it's creating and commandingly wins your attention enough to not turn you off.  While it may not seem like it, there is a point and a light at the end of the tunnel to this maze.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Don Shanahan</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Every Movie Has a Lesson</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>"Inception" delivers twists that fit the evolving context of the story it's creating and commandingly wins your attention enough to not turn you off.  While it may not seem like it, there is a point and a light at the end of the tunnel to this maze.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Sep 4, 2023</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>This film must be revisited, talked about, analyzed, and rewatched again and again. It will surely grow upon each viewing, but it proves instantly enthralling the first time.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Brian Eggert</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Deep Focus Review</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>This film must be revisited, talked about, analyzed, and rewatched again and again. It will surely grow upon each viewing, but it proves instantly enthralling the first time.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Aug 18, 2023</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Still one of the best original films of the last 25 years, Inception is a groundbreaking action drama with some of the most intricate plot mapping this side of dreams and reality.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Cory Woodroof</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>For the Win (USA Today)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Still one of the best original films of the last 25 years, Inception is a groundbreaking action drama with some of the most intricate plot mapping this side of dreams and reality.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Jul 20, 2023</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Fresh, innovative stories told in non-traditional ways...</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Amy Thomasson</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>InSession Film</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Fresh, innovative stories told in non-traditional ways...</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Apr 26, 2023</t>
         </is>
       </c>
     </row>
@@ -603,22 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>This is Christopher Nolan's insane, original concept...</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Jennifer Bisset</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>CNET</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>This is Christopher Nolan's insane, original concept...</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Apr 20, 2023</t>
         </is>
       </c>
     </row>
@@ -630,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>[This] caper film that heists dreams instead of treasure is surely the most cerebral action thriller to become a blockbuster.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Sean Axmaker</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Stream on Demand</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[This] caper film that heists dreams instead of treasure is surely the most cerebral action thriller to become a blockbuster.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Apr 8, 2023</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Tech achievements duly noted (and their scale is certainly not nothing), I’m drawn back to Nolan’s 2001 fixation, unveiled to truly embarrassing effect in the dire, airless Inception...</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Vadim Rizov</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmmaker Magazine</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tech achievements duly noted (and their scale is certainly not nothing), I’m drawn back to Nolan’s 2001 fixation, unveiled to truly embarrassing effect in the dire, airless Inception...</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Jan 24, 2023</t>
         </is>
       </c>
     </row>
@@ -684,22 +684,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Confusing nightmare.  [Full review in Spanish]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Rene Jordan</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>El Nuevo Herald (Miami)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Confusing nightmare.  [Full review in Spanish]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Oct 26, 2022</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Inception’s inspiring imagination and ingenious innovation are still as staggering and stimulating today as they were ten years ago.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Zoë Rose Bryant</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Loud and Clear Reviews</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Inception’s inspiring imagination and ingenious innovation are still as staggering and stimulating today as they were ten years ago.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Sep 1, 2022</t>
         </is>
       </c>
     </row>
@@ -738,22 +738,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>...a modern cinematic masterpiece.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Keith Garlington</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Keith &amp; the Movies</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>...a modern cinematic masterpiece.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Aug 22, 2022</t>
         </is>
       </c>
     </row>
@@ -765,22 +765,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Blows up completely the notion of reality based on an extraordinary overlay of Borgian levels... [Full review in Spanish]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Fausto Fernandez</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Fotogramas</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Blows up completely the notion of reality based on an extraordinary overlay of Borgian levels... [Full review in Spanish]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Jun 21, 2022</t>
         </is>
       </c>
     </row>
@@ -792,22 +792,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Nolan's "dream within a dream" heist film, not only keeps you on the edge of your seat with incredible visual effects and memorable action set pieces, but also makes you a part of the puzzle-solving team from beginning to end. [Full review in Spanish]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Fico Cangiano</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>CineXpress Podcast</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Nolan's "dream within a dream" heist film, not only keeps you on the edge of your seat with incredible visual effects and memorable action set pieces, but also makes you a part of the puzzle-solving team from beginning to end. [Full review in Spanish]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>May 6, 2022</t>
         </is>
       </c>
     </row>
@@ -819,22 +819,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>It's not nearly as confusing as many make it out to be, but if you do find yourself losing the plot a bit, remember you're at the movies and just let it overwhelm you. That's part of the fun.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Steven Hale</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Nashville Scene</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>It's not nearly as confusing as many make it out to be, but if you do find yourself losing the plot a bit, remember you're at the movies and just let it overwhelm you. That's part of the fun.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Sep 13, 2021</t>
         </is>
       </c>
     </row>
@@ -846,22 +846,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Inception engaged on a mainly intellectually level, but that isn't to say that film didn't pack an emotional impact.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Taylor Hatmaker</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Autostraddle</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Inception engaged on a mainly intellectually level, but that isn't to say that film didn't pack an emotional impact.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Jun 9, 2021</t>
         </is>
       </c>
     </row>
@@ -873,22 +873,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>"They say we only use a fraction of our brain's potential" we are told in Inception. The same will never be said of Nolan.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Andrea Hubert</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>NME (New Musical Express)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>"They say we only use a fraction of our brain's potential" we are told in Inception. The same will never be said of Nolan.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>May 19, 2021</t>
         </is>
       </c>
     </row>
@@ -900,22 +900,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Inception is an intriguing, frustrating film, but ultimately satisfying.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Ange Anderson</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Bitch Media</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Inception is an intriguing, frustrating film, but ultimately satisfying.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Dec 30, 2020</t>
         </is>
       </c>
     </row>
@@ -927,22 +927,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Mind-blowing doesn't even begin to describe director Christopher Nolan's latest foray into the mystifying realm of the subconscious.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Mike Massie</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Gone With The Twins</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Mind-blowing doesn't even begin to describe director Christopher Nolan's latest foray into the mystifying realm of the subconscious.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Nov 29, 2020</t>
         </is>
       </c>
     </row>
@@ -954,22 +954,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Joseph Gordon Levitt gives the film's workhorse performance with tremendous heart and muscle.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Richard Propes</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>TheIndependentCritic.com</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Joseph Gordon Levitt gives the film's workhorse performance with tremendous heart and muscle.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Sep 12, 2020</t>
         </is>
       </c>
     </row>
@@ -981,22 +981,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>A multilayered, self-reflexive action film that fires on all cylinders, manipulating time through meticulous editing to deliver a hard-hitting cinematic experience.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Siddhant Adlakha</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>IGN Movies</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>A multilayered, self-reflexive action film that fires on all cylinders, manipulating time through meticulous editing to deliver a hard-hitting cinematic experience.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Sep 2, 2020</t>
         </is>
       </c>
     </row>
@@ -1008,22 +1008,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Humbling and epic in scope, designed and conceptualised brilliantly, but a tad too stand-off-ish emotionally. While the father-daughter dynamic works in parts, the Cooper–Brand relationship is never given the right treatment and collapses.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Akhil Arora</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>AkhilArora.com</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Humbling and epic in scope, designed and conceptualised brilliantly, but a tad too stand-off-ish emotionally. While the father-daughter dynamic works in parts, the Cooper–Brand relationship is never given the right treatment and collapses.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Oct 17, 2023</t>
         </is>
       </c>
     </row>
@@ -1035,22 +1035,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>This is a film where complex concepts of quantum physics and powerful human emotions are inextricably intertwined and the ghost that haunts the farmhouse has both a scientific explanation and a sense of supernatural power.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Sean Axmaker</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Stream on Demand</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>This is a film where complex concepts of quantum physics and powerful human emotions are inextricably intertwined and the ghost that haunts the farmhouse has both a scientific explanation and a sense of supernatural power.</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Sep 9, 2023</t>
         </is>
       </c>
     </row>
@@ -1062,22 +1062,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>"Interstellar" pushes the limits for personal interpretation of both science and fiction. Both elements are wildly heightened to a bold scale to address the internal opposites between logic and spectacle, science and sentiment, and brains and emotion.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Don Shanahan</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Every Movie Has a Lesson</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>"Interstellar" pushes the limits for personal interpretation of both science and fiction. Both elements are wildly heightened to a bold scale to address the internal opposites between logic and spectacle, science and sentiment, and brains and emotion.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Sep 4, 2023</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>…uses sci-fi to go beyond into the philosophical and spiritual beyond that few other epics can reach….</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Eddie Harrison</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>film-authority.com</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>…uses sci-fi to go beyond into the philosophical and spiritual beyond that few other epics can reach….</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Jul 27, 2023</t>
         </is>
       </c>
     </row>
@@ -1116,22 +1116,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Nolan’s most openly emotional film, he fully lived up to his “Stanley Kubrick’s eye and Steven Spielberg’s heart” identity with this grand sci-fi epic about the sheer force of will that we have for those we love.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Cory Woodroof</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>For the Win (USA Today)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Nolan’s most openly emotional film, he fully lived up to his “Stanley Kubrick’s eye and Steven Spielberg’s heart” identity with this grand sci-fi epic about the sheer force of will that we have for those we love.</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Jul 20, 2023</t>
         </is>
       </c>
     </row>
@@ -1143,22 +1143,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Interstellar utilizes science in a way that strives for authenticity in a science-fiction thriller and it's why we're still discussing the Christopher Nolan film today.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Danielle Solzman</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Solzy at the Movies</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Interstellar utilizes science in a way that strives for authenticity in a science-fiction thriller and it's why we're still discussing the Christopher Nolan film today.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Jul 18, 2023</t>
         </is>
       </c>
     </row>
@@ -1170,22 +1170,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>As Robert Bresson once said, “I’d rather people feel a film before understanding it.” Interstellar moved me, and I didn’t find myself fact checking the science so I could complain on Twitter.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Q.V. Hough</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Vague Visages</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>As Robert Bresson once said, “I’d rather people feel a film before understanding it.” Interstellar moved me, and I didn’t find myself fact checking the science so I could complain on Twitter.</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Jun 23, 2023</t>
         </is>
       </c>
     </row>
@@ -1197,22 +1197,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Staggeringly beautiful, bafflingly complex, this is proper event cinema.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Wendy Ide</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Times (UK)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Staggeringly beautiful, bafflingly complex, this is proper event cinema.</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Apr 4, 2023</t>
         </is>
       </c>
     </row>
@@ -1224,22 +1224,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>The film demands quite a bit of time from its viewers too, but its big ideas and wondrous sights are ample reward.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>Edward Porter</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Sunday Times (UK)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>The film demands quite a bit of time from its viewers too, but its big ideas and wondrous sights are ample reward.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Feb 27, 2023</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>When Mann appears to explain man, it collapses under the weight of a repeated thesis that doesn’t merit such explicit, redundant reiteration.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Vadim Rizov</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Filmmaker Magazine</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>When Mann appears to explain man, it collapses under the weight of a repeated thesis that doesn’t merit such explicit, redundant reiteration.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Jan 24, 2023</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1278,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>It’s a contemplative adventure and an emotional exploration that captivated me from its opening moments.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>Keith Garlington</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Keith &amp; the Movies</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>It’s a contemplative adventure and an emotional exploration that captivated me from its opening moments.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Aug 22, 2022</t>
         </is>
       </c>
     </row>
@@ -1305,22 +1305,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Rarely do epics of this scope and intelligence reach theaters anymore; such serious commercial filmmaking seems like a market almost exclusively maintained by Christopher Nolan.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>Brian Eggert</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Deep Focus Review</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Rarely do epics of this scope and intelligence reach theaters anymore; such serious commercial filmmaking seems like a market almost exclusively maintained by Christopher Nolan.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Jun 30, 2022</t>
         </is>
       </c>
     </row>
@@ -1332,22 +1332,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>While not all-together perfect, the film represents a monumental cinematic achievement that deserves to be placed high within the caliber of Nolan’s filmography.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>Josh Parham</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Next Best Picture</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>While not all-together perfect, the film represents a monumental cinematic achievement that deserves to be placed high within the caliber of Nolan’s filmography.</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>May 27, 2022</t>
         </is>
       </c>
     </row>
@@ -1359,22 +1359,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>The inherent message of the film brings hope, but it can definitely get waterlogged by intellectual speak and long-winded scenes.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Therese Lacson</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Nerdophiles</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>The inherent message of the film brings hope, but it can definitely get waterlogged by intellectual speak and long-winded scenes.</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Oct 9, 2021</t>
         </is>
       </c>
     </row>
@@ -1386,22 +1386,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>The film is indeed a sight to behold -- and one that demands to be seen on the biggest possible screen.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>Kip Mooney</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Central Track</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>The film is indeed a sight to behold -- and one that demands to be seen on the biggest possible screen.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Aug 10, 2021</t>
         </is>
       </c>
     </row>
@@ -1413,22 +1413,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Nolan reaches for the stars with beautifully composed shots and some mind-bending special effects, but the dime store philosophy of the story never achieves lift off.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>Richard Crouse</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Richard Crouse</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Nolan reaches for the stars with beautifully composed shots and some mind-bending special effects, but the dime store philosophy of the story never achieves lift off.</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Feb 2, 2021</t>
         </is>
       </c>
     </row>
@@ -1440,22 +1440,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Audiences are sure to lose their suspensions of disbelief over the nearly impenetrable climax.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>Mike Massie</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Gone With The Twins</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Audiences are sure to lose their suspensions of disbelief over the nearly impenetrable climax.</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Dec 4, 2020</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>...an often insanely ambitious science fiction epic that that remains mesmerizing for most of its (admittedly overlong) running time...</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>David Nusair</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Reel Film Reviews</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>...an often insanely ambitious science fiction epic that that remains mesmerizing for most of its (admittedly overlong) running time...</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Sep 20, 2020</t>
         </is>
       </c>
     </row>
@@ -1494,22 +1494,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Scientists will debate, theologians will contemplate, philosophers will wonder, and cinema lovers will bask in the glory of another remarkable Christopher Nolan achievement.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>Richard Propes</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>TheIndependentCritic.com</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Scientists will debate, theologians will contemplate, philosophers will wonder, and cinema lovers will bask in the glory of another remarkable Christopher Nolan achievement.</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Sep 12, 2020</t>
         </is>
       </c>
     </row>
@@ -1521,22 +1521,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>A big-budget reprise of ideas Nolan has been exploring since the beginning of his career. Not only is it a film about the passage of time, it's also a film about memory.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>Siddhant Adlakha</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>IGN Movies</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>A big-budget reprise of ideas Nolan has been exploring since the beginning of his career. Not only is it a film about the passage of time, it's also a film about memory.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Sep 3, 2020</t>
         </is>
       </c>
     </row>
@@ -1548,22 +1548,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>The Wachowskis proceed to turn the world as we know it into a virtual reality landscape with a 20th century tech-noir look (lit with a sickly green hue, like the glow of an old IBM computer screen) and the physics of a video game.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>Sean Axmaker</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Stream on Demand</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>The Wachowskis proceed to turn the world as we know it into a virtual reality landscape with a 20th century tech-noir look (lit with a sickly green hue, like the glow of an old IBM computer screen) and the physics of a video game.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Sep 9, 2023</t>
         </is>
       </c>
     </row>
@@ -1575,22 +1575,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>A $60 million, high-tech assault on the senses and a pretentious insult to the mind.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>Dan DiNicola</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>The Daily Gazette (Schenectady, NY)</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>A $60 million, high-tech assault on the senses and a pretentious insult to the mind.</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Jul 15, 2023</t>
         </is>
       </c>
     </row>
@@ -1602,22 +1602,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>A cyberpunk thriller that's so much fun to watch, it could single-handedly reboot the genre.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>Christopher Brandon</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>TNT's Rough Cut</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>A cyberpunk thriller that's so much fun to watch, it could single-handedly reboot the genre.</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1629,22 +1629,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>The Wachowskis seem to be saying that while state-of-the-art effects speak for themselves, loud and clear, there's still room amid all the kicking and shooting and shouting for the carefully observed human emotion.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>Bill Gallo</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Dallas Observer</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>The Wachowskis seem to be saying that while state-of-the-art effects speak for themselves, loud and clear, there's still room amid all the kicking and shooting and shouting for the carefully observed human emotion.</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1656,22 +1656,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Though The Matrix ultimately overdoses on gloom-and-doom grunge, over-elaborate cool and especially running time, it's just clever enough to enable [the Wachowskis] to nix the sophomore jinx following 1996's Bound.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>Mike Clark</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>USA Today</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Though The Matrix ultimately overdoses on gloom-and-doom grunge, over-elaborate cool and especially running time, it's just clever enough to enable [the Wachowskis] to nix the sophomore jinx following 1996's Bound.</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1683,22 +1683,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>I know almost nothing of the intricate techniques that make The Matrix as eye-filling as it is brain-numbing, but I can tell you that... [its visuals] are wondrous to behold.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>Joe Morgenstern</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Wall Street Journal</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>I know almost nothing of the intricate techniques that make The Matrix as eye-filling as it is brain-numbing, but I can tell you that... [its visuals] are wondrous to behold.</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1710,22 +1710,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>If you're looking for a good spring fix of existentialist sci-fi, look no further than The Matrix -- then do everything you can to look deeper than the skin-tight surface.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>Katherine Monk</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Vancouver Sun</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>If you're looking for a good spring fix of existentialist sci-fi, look no further than The Matrix -- then do everything you can to look deeper than the skin-tight surface.</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1737,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Although it's sometimes too confounding for its own good and a little heavy on the Zen-inspired techno-babble, The Matrix is a consistently absorbing assault on the senses.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>Michael D. Reid</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Victoria Times Colonist (B.C., Canada)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Although it's sometimes too confounding for its own good and a little heavy on the Zen-inspired techno-babble, The Matrix is a consistently absorbing assault on the senses.</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1764,22 +1764,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>There's more form than content in The Matrix, but Bill Pope's swooping, noir-inflected cinematography is wonderfully complemented by Owen Paterson's inventive production design, a great soundtrack and the best fight choreography this side of Hong Kong.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>Manohla Dargis</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>L.A. Weekly</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>There's more form than content in The Matrix, but Bill Pope's swooping, noir-inflected cinematography is wonderfully complemented by Owen Paterson's inventive production design, a great soundtrack and the best fight choreography this side of Hong Kong.</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1791,22 +1791,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>Give [the Wachowskis] an A for effort and three A's for those effects. The Matrix is a dazzlingly original visual adventure.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>Jack Mathews</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>New York Daily News</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Give [the Wachowskis] an A for effort and three A's for those effects. The Matrix is a dazzlingly original visual adventure.</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1818,22 +1818,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Casting the robotic Reeves as the hope of humanity may be this oppressively long, self-satisfied movie's funniest gag, but it doesn't really make the game any fun. It means we get stuck with the least interesting player.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>Terry Lawson</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Detroit Free Press</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Casting the robotic Reeves as the hope of humanity may be this oppressively long, self-satisfied movie's funniest gag, but it doesn't really make the game any fun. It means we get stuck with the least interesting player.</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1845,22 +1845,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>The Matrix's pleasures are considerable, but they're all purely visceral, too, lacking the mythology that would have elevated the movie. The movie is best taken as the first entry in a brand-new genre: post-modern sci-fi pulp.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>Rene Rodriguez</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Miami Herald</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>The Matrix's pleasures are considerable, but they're all purely visceral, too, lacking the mythology that would have elevated the movie. The movie is best taken as the first entry in a brand-new genre: post-modern sci-fi pulp.</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1872,22 +1872,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>How could filmmakers who are so skilled and imaginative lose themselves (and us) in what feels like a college stab at Aldous Huxley metaphysics?</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>Stephen Cole</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>National Post</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>How could filmmakers who are so skilled and imaginative lose themselves (and us) in what feels like a college stab at Aldous Huxley metaphysics?</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1899,22 +1899,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>A futuristic paranoia extravaganza, it would seem to have far more appeal to an artificial intelligence than it would to human beings and other carbon-based life forms.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>Jay Boyar</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Orlando Sentinel</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>A futuristic paranoia extravaganza, it would seem to have far more appeal to an artificial intelligence than it would to human beings and other carbon-based life forms.</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>An interminable, sterile, exercise in cinematographic onanism.  [Full review in Spanish]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>Rene Jordan</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>El Nuevo Herald (Miami)</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>An interminable, sterile, exercise in cinematographic onanism.  [Full review in Spanish]</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>Like last year's Dark City, the effects and storyline of The Matrix plow through enough fresh territory to make it worth seeing.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>Gary Wolcott</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Tri-City Herald</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Like last year's Dark City, the effects and storyline of The Matrix plow through enough fresh territory to make it worth seeing.</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -1980,22 +1980,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>Visually, at least, The Matrix more than lives up to its billing. Writer-directors [the Wachowskis] seem to literally bring the screen to life with action scenes that define the word kinetic.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>Ron Weiskind</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Pittsburgh Post-Gazette</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Visually, at least, The Matrix more than lives up to its billing. Writer-directors [the Wachowskis] seem to literally bring the screen to life with action scenes that define the word kinetic.</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -2007,22 +2007,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>The Matrix isn't a film that is acted, exactly, but Reeves and Fishburne are both just swell and Weaving is a lot of fun as bad Agent Smith. And some of the small ideas are intriguing ones. They're the stuff of which sci-fi classics are made.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>Jay Stone</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Ottawa Citizen</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>The Matrix isn't a film that is acted, exactly, but Reeves and Fishburne are both just swell and Weaving is a lot of fun as bad Agent Smith. And some of the small ideas are intriguing ones. They're the stuff of which sci-fi classics are made.</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -2034,22 +2034,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>It's rare, and kind of touching, really, to see a lushly financed studio spectacular work so hard to keep everyone's attention. And with enough symbolism to keep online chat rooms busier than the day Babylon 5 was cancelled.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>Elvis Mitchell</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Fort Worth Star-Telegram/DFW.com</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>It's rare, and kind of touching, really, to see a lushly financed studio spectacular work so hard to keep everyone's attention. And with enough symbolism to keep online chat rooms busier than the day Babylon 5 was cancelled.</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -2061,22 +2061,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>With pounding assurance, The Matrix scores as a real triumph of technical special-effects-driven filmmaking. Sad, though, that the Wachowskis end up letting the machines run away with the show.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>Dennis King</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Tulsa World</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>With pounding assurance, The Matrix scores as a real triumph of technical special-effects-driven filmmaking. Sad, though, that the Wachowskis end up letting the machines run away with the show.</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Jul 13, 2023</t>
         </is>
       </c>
     </row>
@@ -2088,22 +2088,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Susan Granger</t>
+          <t>Pixar always had something new up its collective artistic sleeve. And yet here they are, coming out with a film as dull-witted and syrupy as Elemental.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SSG Syndicate</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Stunning animation sparks this cross-cultural, high-concept 'Romeo &amp; Juliet' romantic comedy, inspired by the periodic chart of elements that one recalls from science class.</t>
+          <t>Stephanie Bunbury</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sep 26, 2023</t>
+          <t>Deadline Hollywood Daily</t>
         </is>
       </c>
     </row>
@@ -2115,22 +2115,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MontiLee Stormer</t>
+          <t>Stunning animation sparks this cross-cultural, high-concept 'Romeo &amp; Juliet' romantic comedy, inspired by the periodic chart of elements that one recalls from science class.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MovieReelist.com</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Elemental is a marvel of layered animation techniques that float through that uncanny valley between 2D and 3D. It’s hard to discern the physical set pieces from those created in a computer and that lends an edge of realism.</t>
+          <t>Susan Granger</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sep 23, 2023</t>
+          <t>SSG Syndicate</t>
         </is>
       </c>
     </row>
@@ -2142,22 +2142,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Vincent Mancini</t>
+          <t>Elemental is a marvel of layered animation techniques that float through that uncanny valley between 2D and 3D. It’s hard to discern the physical set pieces from those created in a computer and that lends an edge of realism.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>FilmDrunk</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>"Trying to make a character out of a cloud" is a sadly apt metaphor for this whole doomed endeavor.</t>
+          <t>MontiLee Stormer</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sep 20, 2023</t>
+          <t>MovieReelist.com</t>
         </is>
       </c>
     </row>
@@ -2169,22 +2169,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Douglas Davidson</t>
+          <t>"Trying to make a character out of a cloud" is a sadly apt metaphor for this whole doomed endeavor.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Elements of Madness</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Together, with the thematic elements and execution of the ideas, "Elemental" goes beyond tear-inducing, reaching soul-shaking. Absolutely the surprise film of 2023.</t>
+          <t>Vincent Mancini</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sep 13, 2023</t>
+          <t>FilmDrunk</t>
         </is>
       </c>
     </row>
@@ -2196,22 +2196,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Nora Lee Mandel</t>
+          <t>Together, with the thematic elements and execution of the ideas, "Elemental" goes beyond tear-inducing, reaching soul-shaking. Absolutely the surprise film of 2023.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Maven's Nest</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Water, Fire, Earth, and Air are like ethnic inhabitants of distinctive neighborhoods in this imaginatively designed Element City, with the Periodic Table-like skyline.  But the story line gets heavy-handed about immigrants and accepting different folks.</t>
+          <t>Douglas Davidson</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sep 6, 2023</t>
+          <t>Elements of Madness</t>
         </is>
       </c>
     </row>
@@ -2223,22 +2223,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nadine Whitney</t>
+          <t>Water, Fire, Earth, and Air are like ethnic inhabitants of distinctive neighborhoods in this imaginatively designed Element City, with the Periodic Table-like skyline.  But the story line gets heavy-handed about immigrants and accepting different folks.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>The Curb</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Elemental does reward a big screen experience, and its message about love, self-determination, and community is relevant and welcome.</t>
+          <t>Nora Lee Mandel</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sep 6, 2023</t>
+          <t>Maven's Nest</t>
         </is>
       </c>
     </row>
@@ -2250,22 +2250,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Farah Cheded</t>
+          <t>Elemental does reward a big screen experience, and its message about love, self-determination, and community is relevant and welcome.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A Good Movie To Watch</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>This Pixar movie doesn’t rekindle the studio’s old magic, but it’s no washout either.</t>
+          <t>Nadine Whitney</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sep 2, 2023</t>
+          <t>The Curb</t>
         </is>
       </c>
     </row>
@@ -2277,22 +2277,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>John Serba</t>
+          <t>This Pixar movie doesn’t rekindle the studio’s old magic, but it’s no washout either.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Decider</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Visually, the film generally makes up for its dubiously executed premise and underwhelming conflict resolution – it had better, considering the $200 million budget.</t>
+          <t>Farah Cheded</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Aug 16, 2023</t>
+          <t>A Good Movie To Watch</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2304,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ronak Kotecha</t>
+          <t>Visually, the film generally makes up for its dubiously executed premise and underwhelming conflict resolution – it had better, considering the $200 million budget.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>The Times of India</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Elemental is an experience for the big screen for the whole family. It’s dreamy, surreal and magically entertaining without a moment of dullness. Do not miss it for the world.</t>
+          <t>John Serba</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Aug 12, 2023</t>
+          <t>Decider</t>
         </is>
       </c>
     </row>
@@ -2331,22 +2331,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gisela Savdie</t>
+          <t>Elemental is an experience for the big screen for the whole family. It’s dreamy, surreal and magically entertaining without a moment of dullness. Do not miss it for the world.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>El Heraldo</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>The theme of romance between opposite beings is intertwined with the issue of immigration, with which many can identify. [Full review in Spanish]</t>
+          <t>Ronak Kotecha</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Aug 10, 2023</t>
+          <t>The Times of India</t>
         </is>
       </c>
     </row>
@@ -2358,22 +2358,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Rick Bentley</t>
+          <t>The theme of romance between opposite beings is intertwined with the issue of immigration, with which many can identify. [Full review in Spanish]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>KGET-TV (Bakersfield, CA)</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>The pieces of Elemental go together just like the blending of hydrogen and oxygen to create water.</t>
+          <t>Gisela Savdie</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Aug 9, 2023</t>
+          <t>El Heraldo</t>
         </is>
       </c>
     </row>
@@ -2385,22 +2385,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mini Anthikad-Chhibber</t>
+          <t>The pieces of Elemental go together just like the blending of hydrogen and oxygen to create water.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>The Hindu</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Visually, Elemental is stunning — the way Ember and Wade have been brought to life is an eye-popping intersection of technology and imagination.</t>
+          <t>Rick Bentley</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Aug 3, 2023</t>
+          <t>KGET-TV (Bakersfield, CA)</t>
         </is>
       </c>
     </row>
@@ -2412,22 +2412,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Manuel São Bento</t>
+          <t>Visually, Elemental is stunning — the way Ember and Wade have been brought to life is an eye-popping intersection of technology and imagination.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>FirstShowing.net</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Elemental may be straightforward and predictable, but it's so thematically rich and features such emotionally relatable characters that, by the end, I found myself fighting back tears.</t>
+          <t>Mini Anthikad-Chhibber</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Jul 25, 2023</t>
+          <t>The Hindu</t>
         </is>
       </c>
     </row>
@@ -2439,22 +2439,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Matthew Creith</t>
+          <t>Elemental may be straightforward and predictable, but it's so thematically rich and features such emotionally relatable characters that, by the end, I found myself fighting back tears.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Matinee With Matt</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>The film's premise is remarkably surface-level and never dives into a more profound meaning beyond apparent comparisons to other Disney-led projects.</t>
+          <t>Manuel São Bento</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Jul 25, 2023</t>
+          <t>FirstShowing.net</t>
         </is>
       </c>
     </row>
@@ -2466,22 +2466,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Elliott Collins</t>
+          <t>The film's premise is remarkably surface-level and never dives into a more profound meaning beyond apparent comparisons to other Disney-led projects.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Movie Files</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Elemental is a very endearing movie that tackles themes such as generational burdens, parental expectations, honoring legacy but also shows how to create and chasing your own dreams. It’s Pixar first real swing at a romcom, and the love story works.</t>
+          <t>Matthew Creith</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Jul 23, 2023</t>
+          <t>Matinee With Matt</t>
         </is>
       </c>
     </row>
@@ -2493,22 +2493,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sarah Ward</t>
+          <t>Elemental is a very endearing movie that tackles themes such as generational burdens, parental expectations, honoring legacy but also shows how to create and chasing your own dreams. It’s Pixar first real swing at a romcom, and the love story works.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Concrete Playground</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Elemental feels like Pixar is taking its titular term to heart in the worst way, making for rudimentary rather than particularly ravishing or resonant viewing.</t>
+          <t>Elliott Collins</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Jul 22, 2023</t>
+          <t>Movie Files</t>
         </is>
       </c>
     </row>
@@ -2520,22 +2520,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ryan Oquiza</t>
+          <t>Elemental feels like Pixar is taking its titular term to heart in the worst way, making for rudimentary rather than particularly ravishing or resonant viewing.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Rappler</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Elemental has enough depth for adults, creativity for children, and a searing romance that succeeds only when other aspects take a backseat.</t>
+          <t>Sarah Ward</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Jul 21, 2023</t>
+          <t>Concrete Playground</t>
         </is>
       </c>
     </row>
@@ -2547,22 +2547,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hector A. Gonzalez</t>
+          <t>Elemental has enough depth for adults, creativity for children, and a searing romance that succeeds only when other aspects take a backseat.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>The Movie Buff</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>The film’s unconventional romance-comedy-inspired story fails to light the torch of its emotional core, leaving the audience in a state of wanting more.</t>
+          <t>Ryan Oquiza</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Jul 21, 2023</t>
+          <t>Rappler</t>
         </is>
       </c>
     </row>
@@ -2574,22 +2574,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>David Griffiths</t>
+          <t>The film’s unconventional romance-comedy-inspired story fails to light the torch of its emotional core, leaving the audience in a state of wanting more.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Subculture Entertainment</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Elemental is certainly one of those films that can be enjoyed by people of all ages. Perhaps it doesn’t have the humor that many would expect from a Pixar film but it does have a thought-provoking storyline.</t>
+          <t>Hector A. Gonzalez</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Jul 21, 2023</t>
+          <t>The Movie Buff</t>
         </is>
       </c>
     </row>
@@ -2601,22 +2601,2479 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Elva Si</t>
+          <t>Elemental is certainly one of those films that can be enjoyed by people of all ages. Perhaps it doesn’t have the humor that many would expect from a Pixar film but it does have a thought-provoking storyline.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mediaversity Reviews</t>
+          <t>Kid_movie</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>The choice to present Wade as the catalyst for Ember’s growth devalues her strength and independence.</t>
+          <t>David Griffiths</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Jul 20, 2023</t>
+          <t>Subculture Entertainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>The Last Airbender plays like it should be the work of a low-grade hack with little-to-no experience behind the camera, but instead, it’s by a director who not so long ago was praised as one of today’s finest new storytellers.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Brian Eggert</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Deep Focus Review</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Visually catastrophic. [Full review in Spanish]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Rene Jordan</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>El Nuevo Herald (Miami)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Time was, the endings of M.Night Shyamalan films were always the biggest mystery. Now, the only mystery remaining is how, in a recession, he continues to get studios to fund his films.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Andrea Hubert</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NME (New Musical Express)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>While certain aspects benefit from a big budget, much of the action and elemental effects feel overly processed with an abundance in slow motion and swirling colors.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Mike Massie</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Gone With The Twins</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>The worst film of the year.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Richard Propes</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>TheIndependentCritic.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mediocrity and abuse of slow motion to show off the film's costly digital effects are the keynote of a movie with no interest... except for the music. [Full Review in Spanish]</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Sergio Benítez</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Espinof</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>A ridiculously talkie excursion that takes itself way too seriously, resulting in a dull action film that completely sucks the life out of a potentially fun franchise.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Micheal Compton</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Bowling Green Daily News</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Neither epic enough to be memorable, nor disposable enough to be harmless...Think of Star Wars: Episode I without the nuance (!) and subtlety (!!).</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Zaki Hasan</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Zaki's Corner</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Shyamalan is your trickster guide on a journey into nothingness, from which only your soul-dead shadow will ever return.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Charlie Jane Anders</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>io9.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Airbender's editing is clunky, its pace glacial. It feels like watching someone's homemade tai chi highlight reel, if tai chi could be somehow racist.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Lindy West</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>The Stranger (Seattle, WA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>A poor effort from a director who once promised so much.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Alasdair Morton</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>SciFiNow</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>There isn't a single convincing performance in the picture, and the badness of the acting is, bizarrely, pretty much in direct proportion to a character's importance.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>John DeFore</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Austin American-Statesman</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>The Last Airbender is not just a flop, it's a big-budget flop, and it's a throwback to that grand old genre, the movie that's so bad that it's bad.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Jay Stone</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Canada.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[A] breathtakingly clueless, misconceived, stupid, humourless, unexciting, dim, dumb farrago, the worst film I've seen in years.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>John Walsh</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Independent on Sunday</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>A quite breathtakingly inept hodge-podge of vapid spirituality, playground chopsocky and visual effects that take 3D to an entirely new level: Zero-D.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Sukhdev Sandhu</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Daily Telegraph (UK)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Would it be more accurate to call this The Last Shyamalan Movie?</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Scott Collura</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>IGN Movies</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Nothing here is helped by M. Night Shyamalan's bizarre casting choices.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Corey Hall</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Metro Times (Detroit, MI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Writer/director M Night Shyamalan's once glorious reputation is tarnished further by this tediously juvenile fantasy adventure.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Alan Jones</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Radio Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>There's no third-act twist because we never get out of the first act.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Perry Seibert</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>TV Guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>last_airbender</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[Shyamalan] works so much better with stories that are slower in development, where the atmosphere and tone drive the film, and where you're never quite sure what's going on (though not in the sense where you're completely confused, like this film).</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Fantasy_movie</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Jeff Beck</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Examiner.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>the_last_sharknado_its_about_time</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>At least the characters register, and the action is vaguely coherent within the total lack of logic.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Action_movie</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Rich Cline</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Shadows on the Wall</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>the_last_sharknado_its_about_time</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>The Last Sharknado: It's About Time is the second best in the series, and therefore the franchise ends on a high note.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Action_movie</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Bobby LePire</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Film Threat</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>the_last_sharknado_its_about_time</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>What once was camp is now just atrocious.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Action_movie</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Roger Catlin</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>rogercatlin.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>the_last_sharknado_its_about_time</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>It's clear during [the climax] sequence that we've gone well past the point of Peak Absurdity, as far as potential humor is concerned, and the big climax thus leaves the viewer cold.</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Action_movie</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Jim Vorel</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Paste Magazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>the_last_sharknado_its_about_time</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>The Last Sharknado is simply a collection of images and noises loosely cobbled together in a way that somehow makes them barely suitable for ironic viewing.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Action_movie</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Kevin Yeoman</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Screen Rant</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>the_last_sharknado_its_about_time</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Look, it's The Last Sharknado. You kind of feel guilty calling it bad because of what it inherently is, but then again...it's just dumb.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Action_movie</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Matt Fowler</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>IGN Movies</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>the_last_sharknado_its_about_time</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Aside from sheer exhaustion at the overwhelming set pieces &amp; shark puns, Fin and April and Nova did become endearing characters. They deserve the same kind of sendoff Rocky Balboa, Freddy Krueger, Jason Voorhees, Jigsaw and Ellen Ripley got!</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Action_movie</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Fred Topel</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>We Live Entertainment</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>the_last_sharknado_its_about_time</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Honestly, The Last Sharknado isn't bad enough to be good and isn't good enough to be good. It's kind of just... there, lacking the gore of splatterpunk and the sanitation of kiddie-fare.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Action_movie</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Robyn Bahr</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Hollywood Reporter</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>the_last_sharknado_its_about_time</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>It's hard to spoil something that has already grown this stale, serving up a composted collection of gags.</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Action_movie</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Brian Lowry</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>CNN.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>the_last_sharknado_its_about_time</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>It's probably OK to say that airborne sharks again are key to the "story."</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Action_movie</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Ed Bark</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Uncle Barky</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>the_last_sharknado_its_about_time</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>A film in which all the wit and ingenuity on hand appears to have been squandered on coming up with the title.</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Action_movie</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Peter Sobczynski</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>RogerEbert.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>It makes a case for Sergio Leone as a true artist and it slowly reveals itself to have real emotional heft when you begin considering some of the ambitious themes that Leone tackles.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Zita Short</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>InSession Film</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>While it may not be the best Western ever made - heck, it's not even the best Western Leone ever made - it's clearly the work of a master filmmaker whose style has never grown stale.</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Matt Brunson</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Film Frenzy</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>If you only see one spaghetti Western in your lifetime, this is the one to see.</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sarah Boslaugh</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>TheArtsStl</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>The score for The Good, the Bad and the Ugly is magnificent. The main theme that plays over the titles is simultaneously of a specific time and also timeless.</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Sarah Brinks</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Battleship Pretension</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Leone's penchant for contrasting two kinds of shots, close-ups and long shots, finds its corollary in the gray or blue...Leone turns gray soldiers blue in the simplest way possible. Movies were invented for ideas like that.</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>A.S. Hamrah</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>n+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Boasts what is often considered the greatest showdown ever filmed.</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Mike Massie</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Gone With The Twins</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>The quintessential spaghetti western.</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Allen Almachar</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>The MacGuffin</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>As in an opera, the characters are archetypes, not figures we particularly identify with; as in an opera, we waited a long time for the inevitable ghastly conclusion; as in an opera, Leone seeks (and delivers) a kind of ecstatic dread.</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Kyle Smith</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>National Review</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>The final scene in the Sad Hill Cemetery is a riveting spectacle, made so by some brilliantly tight editing and underscored by the genius of Ennio Morricone's genre-defining composition.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Tom Meek</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Cambridge Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>When Ennio Morricone's score kicks in and Leone's editing picks up, our everyday problems fade away like a cowboy riding off into the sunset.</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Asher Luberto</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>L.A. Weekly</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>If you've never gotten into spaghetti Westerns, there's no time like the present to give it a go with one of the best.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Laura Bradley</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>The Daily Beast</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>But "GBU" remains the iconic piece for all time.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Bob Strauss</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Los Angeles Daily News</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>There are two kinds of people, my friend. Those who love Sergio Leone's The Good, the Bad and the Ugly (1966) and those who resist the machismo and gallows humor of what is arguably the definitive spaghetti western.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Sean Axmaker</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Seanax.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Leone's liberal use of widescreen shots in conjunction with extreme close-ups gives the movie an epic quality that is matched in scope by a skeletal narrative structure that breathes with a poker-faced mood, tone, and personality.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Cole Smithey</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>ColeSmithey.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>A unique vision of the American West as place of desolation and ruin on a truly epic scale.</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Tim Brayton</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Antagony &amp; Ecstasy</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>The defining spaghetti western pits a charismatic Clint Eastwood against partner and nemesis Eli Wallach and perpetual enemy Lee Van Cleef.</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Wesley Lovell</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Cinema Sight</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Potent Italian-Western shoot-'em up/war drama.</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Charles Cassady</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Common Sense Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Its parody of genre conventions resonates with scope and power.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Dennis Schwartz</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Dennis Schwartz Movie Reviews</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Sergio Leone's dramatic directing style is powerful and well delivered, even by today's standards.</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Kevin Carr</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>7M Pictures</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>the_good_the_bad_and_the_ugly</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>The fellas in Leone's films are seething cesspools of hatred and frustration whose only satisfaction-however fleeting-is found in pursuit and acquisition of money</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Wester_movie</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Dan Jardine</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Apollo Guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Akira is one of the great anime sci-fi classics and has been influential across various forms of media.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Howard Waldstein</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>CBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Great to look at, but more exhausting than entertaining.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Rob Gonsalves</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Rob's Movie Vault</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Such an extraordinary achievement demands to be seen and seen again for re-evaluation into its deeper relevance—and to be appreciated as a landmark not just of anime but of international cinema.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Brian Eggert</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Deep Focus Review</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>AKIRA is an audiovisual masterpiece that still blows me away after all these years. For two hours, the film takes us into a completely disrupted world in which destruction and ambivalence are omnipresent. A film you will never forget.</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Jimmy Cage</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Jimmy Cage Movie Reviews (YouTube)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>The opening motorbike chase is still thrilling, but the dedication to the backgrounds as well as crowds of people filling the screen, explosions happening in the distance, and a jaw-dropping sense of scope make Akira the classic that it is.</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Chris Stuckmann</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>ChrisStuckmann.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Akira's strangeness is very startling and sometimes bewildering. But there is a thanatonic rapture to its vision of a whole world ending and being reborn as something else.</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Peter Bradshaw</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Guardian</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>I've seen the movie four times, and this go-around my jaw was lower on the floor than ever before, somehow.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Matt Patches</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Polygon</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>It's dark and violent but, because it is so creative, it is a really fun experience. It's like Inception but way more trippy!</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Rachel Wagner</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Rotoscopers</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>It continues to show the best of the genre, almost 30 years later. It would be sacrilegious to give a different rating from PERFECT to AKIRA. [Full review in Spanish]</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Julio Vélez</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Cine Premiere</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Handsome and preposterously ambitious, and even its worst narrative missteps are a factor of that ambition.</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Tim Brayton</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Antagony &amp; Ecstasy</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>While its typically convoluted sci-fi plotting and sprawling ensemble of characters occasionally lead it to border on the incoherent, it's hard not to be in awe of the giant hand-drawn cityscapes that make up the backdrop for the eye-popping action.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>David Jenkins</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Little White Lies</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Pounding away, it becomes monotonous.</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Dave Kehr</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Chicago Tribune</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[Akira] is a blast and a half, a twisted dystopian parable of violence and rock and roll, Japanese-style. It's Disney on PCP, mean, rotten, psychotic, but incredibly vivid.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Stephen Hunter</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Baltimore Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Extremely violent classic introduced anime to Westerners.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Jeffrey M. Anderson</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Common Sense Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Moments that can only be captured as animation make Akira still worth watching: gusts of wind from chopper blades, ka-tooming bursts of fiery explosions, Tetsuo's visions.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Brian Gibson</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Vue Weekly (Edmonton, Alberta)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Plenty of superb recent blockbusters, including The Matrix, The Dark Knight, Minority Report, Dark City and Inception, are all in its debt - not to mention a fair number of shockers, like Star Wars Episode II and the most recent Resident Evil atrocity.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Robbie Collin</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>News of the World</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Put it up there with the most astonishing animated features ever made.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Derek Malcolm</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>London Evening Standard</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Style and substance run neck and neck in this thrilling, bold landmark film that just refuses to become dated.</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Phelim O'Neill</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Guardian</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>The cityscapes are awesome, the camerawork is dizzying. If you're new to manga, prepare to be converted.</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>David Parkinson</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Radio Times</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>akira</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Akira is pure concentrated cinematic excellence - accept no substitutes.</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Sci-fi_movie</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Rob Daniel</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Sky Cinema</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>I will not give away the ending to American Psycho, but I will say this: The last three scenes are implausible and unnecessary (and totally unrelated to the book) and the ending includes the cheapest, most manipulative trick in filmmaking.</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Chuck Klosterman</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Akron Beacon Journal</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>... A ferociously intelligent, horribly violent and darkly funny parable of greed and violence.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Wendy Ide</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Times (UK)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Christian Bale is razor sharp... as blank corporate drone Patrick Bateman... a preening tiger in designer suits whose speaking voice is part salesman, part self-help guru, and completely artificial</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Sean Axmaker</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Stream on Demand</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>I couldn't connect with this movie at all. In a way, the story kind of goes nowhere. But at the same time, Christian Bale goes for broke and you can't help but appreciate it.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Justin Brown</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Medium Popcorn</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Despite an incredible performance by Christian Bale, this movie was a struggle to get through given that none of the characters had any redeeming qualities.</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Brandon Collins</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Medium Popcorn</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Expertly made and does what it's trying to do very well, but I just can't fully connect with this one.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Trace Thurman</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Horror Queers Podcast</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>American Psycho directly addresses the horror of capitalism, in which other people are just props for the fantasies of men who get wealthier by the second.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>A.S. Hamrah</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>The Baffler</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>The idea that this is all a fantasy inside Bateman's head is brilliantly realised in his growing realisation that he's been able to get away with all of this in plain sight.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>PJ Nabarro</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Patrick Nabarro</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>There are times where this film is satire at its best. It's also horrific, violent and stomach-turning. Christian Bale is incredible in this movie and he commits to making Bateman completely deplorable.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Kristy Strouse</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>In Their Own League</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Graced with a smart, pathos-laden meditation on male competition and the blood-drawing ferocity of a money-centered culture, along with screenwriter Guinevere Turner, Harron does a transformative voodoo on an often repugnant source.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Felicia Feaster</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Creative Loafing</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>American Psycho is one of the greatest horror films of all time; with its disturbingly dark comedy, psychotic breakdowns of society and an unnerving look at the obsessive thoughts of a serial killer.</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Zoe Rose Smith</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Zobo With A Shotgun</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>As far as revelations go, the final twist in American Psycho is more bewildering than earth-shattering, but that's what makes it great.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>C.J. Prince</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Way Too Indie</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>I've always found Mary Harron's vision of Bret Easton Ellis's arch satire of '80s greed, excess, and grooming to be a lot funnier than its reputation.</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Sean Fennessey</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>The Ringer</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>When you're a white, rich man in American, you can get away with anything. Murder and rape? Go ahead! Commit at will because the world is your oyster.</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Lindsay Pugh</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Woman in Revolt</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Like all great films, "American Psycho" is one you can discover something new in regardless of how many times you've seen it.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Cole Smithey</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>ColeSmithey.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>A bloody, gruesome black comedy that's not for kids.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Jeffrey M. Anderson</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Common Sense Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>The slick satire cleverly equates materialism, narcissism, misogyny, and classism with homicide, but you may laugh so loud at the protagonist that you won't be able to hear yourself laughing with him.</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Lisa Alspector</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Chicago Reader</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>It's hard to summon up enthusiasm for a performance so rooted in bloody banality. I mean, as Patrick, Bale's most emotionally pressing dilemma is: Chainsaw or butcher knife?</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Desson Thomson</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Washington Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>American Psycho is nearly perfect for what it is, but before we go on, we should ask what that actually amounts to. Can something with so rigid a thesis be a real work of art?</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>David Edelstein</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Slate</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>american_psycho</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>It needs to be seen and appreciated, like a serpent in a glass cage.</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Comedy_movie</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Richard Corliss</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>TIME Magazine</t>
         </is>
       </c>
     </row>
